--- a/working mapping.xlsx
+++ b/working mapping.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Type</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>hotMail</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -154,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -173,6 +176,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +497,7 @@
     <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="10.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.290714285714287" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="6" width="13.290714285714287" customWidth="1" bestFit="1"/>
@@ -546,7 +552,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -579,7 +585,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -616,7 +622,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -653,7 +659,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -690,7 +696,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -723,7 +729,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -756,7 +762,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -789,7 +795,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,7 +832,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -863,12 +869,18 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>

--- a/working mapping.xlsx
+++ b/working mapping.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rutik\Desktop\JSON\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83BA894-E057-4C73-A070-F2B677C8277B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="828" yWindow="1068" windowWidth="22212" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Mapping"/>
+    <sheet name="Mapping" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Type</t>
   </si>
@@ -101,13 +107,24 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>samed</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>z/o</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,38 +174,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -199,10 +213,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -240,71 +254,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -332,7 +346,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -355,11 +369,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -368,13 +382,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -384,7 +398,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -393,7 +407,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -402,7 +416,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -410,10 +424,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -478,429 +492,401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/working mapping.xlsx
+++ b/working mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rutik\Desktop\JSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83BA894-E057-4C73-A070-F2B677C8277B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FAAB32-4521-4878-8E4B-BDA719BBAC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="1068" windowWidth="22212" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Type</t>
   </si>
@@ -119,13 +119,31 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +163,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -496,7 +520,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
@@ -888,7 +912,63 @@
         <v>32</v>
       </c>
     </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/working mapping.xlsx
+++ b/working mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rutik\Desktop\JSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FAAB32-4521-4878-8E4B-BDA719BBAC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B42480-98EF-47E9-B443-BFDF88AFB17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="1068" windowWidth="22212" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>Type</t>
   </si>
@@ -76,30 +76,18 @@
     <t>e</t>
   </si>
   <si>
-    <t>z/x</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
-    <t>z/w/i</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
-    <t>z/w/p</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
     <t>Trade</t>
   </si>
   <si>
-    <t>z/t/q</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>o</t>
   </si>
   <si>
-    <t>z/o</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
@@ -136,7 +121,28 @@
     <t>a5</t>
   </si>
   <si>
-    <t>w</t>
+    <t>te</t>
+  </si>
+  <si>
+    <t>eq</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>z/p</t>
+  </si>
+  <si>
+    <t>z/t</t>
+  </si>
+  <si>
+    <t>z/r</t>
+  </si>
+  <si>
+    <t>z/op</t>
   </si>
 </sst>
 </file>
@@ -520,10 +526,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -591,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -627,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -663,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -699,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -729,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -756,10 +762,10 @@
     </row>
     <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -786,10 +792,10 @@
     </row>
     <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -819,13 +825,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -855,13 +861,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -888,10 +894,10 @@
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -900,24 +906,24 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -925,10 +931,10 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -936,10 +942,10 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -947,23 +953,68 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
         <v>7</v>
       </c>
     </row>

--- a/working mapping.xlsx
+++ b/working mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rutik\Desktop\JSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B42480-98EF-47E9-B443-BFDF88AFB17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8255DD-9601-40D1-90A0-EC838D473C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="1068" windowWidth="22212" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
   <si>
     <t>Type</t>
   </si>
@@ -70,9 +70,6 @@
     <t>d</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
@@ -143,6 +140,12 @@
   </si>
   <si>
     <t>z/op</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>11/12/1852</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
   <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,9 +573,11 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -602,7 +607,9 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
@@ -638,7 +645,9 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3">
+        <v>2</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
@@ -674,7 +683,9 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
@@ -708,9 +719,11 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="3"/>
@@ -732,15 +745,17 @@
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
@@ -762,15 +777,17 @@
     </row>
     <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
@@ -792,15 +809,17 @@
     </row>
     <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="3"/>
@@ -825,18 +844,20 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
@@ -861,18 +882,20 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
@@ -894,128 +917,158 @@
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
+      <c r="G12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/working mapping.xlsx
+++ b/working mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rutik\Desktop\JSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8255DD-9601-40D1-90A0-EC838D473C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9542B9-69D0-4A1C-8535-0C2FE234CFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="1068" windowWidth="22212" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>Type</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>11/12/1852</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>z/tp</t>
   </si>
 </sst>
 </file>
@@ -529,10 +535,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,6 +1077,20 @@
         <v>34</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/working mapping.xlsx
+++ b/working mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rutik\Desktop\JSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9542B9-69D0-4A1C-8535-0C2FE234CFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F824F9B-5812-4DDB-BB55-2C6F29910FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="1068" windowWidth="22212" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>Type</t>
   </si>
@@ -58,15 +58,9 @@
     <t>z/q</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -152,6 +146,9 @@
   </si>
   <si>
     <t>z/tp</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -537,8 +534,8 @@
   </sheetPr>
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,10 +576,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -649,10 +646,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -678,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -687,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -716,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -725,10 +719,10 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -751,16 +745,16 @@
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -783,16 +777,16 @@
     </row>
     <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -815,16 +809,16 @@
     </row>
     <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -850,19 +844,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -888,19 +882,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -923,104 +917,104 @@
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1028,19 +1022,19 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1048,16 +1042,16 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1065,16 +1059,16 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1082,10 +1076,10 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
